--- a/data/inventory/lci-euro4.xlsx
+++ b/data/inventory/lci-euro4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\OneDrive - NTNU\Attachments\PSI\jupyter\Adapt LCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nistad_a\Desktop\scrappage-bev\data\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="114_{4A190DB0-93B5-48A3-9732-480A1E7A25CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{5209D086-55FD-46BE-909C-F9E4A0CFD723}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CECD01CC-42E7-49AA-AA54-543F02A4D916}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="euro 4" sheetId="1" r:id="rId1"/>
@@ -258,8 +257,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +354,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Prosent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,19 +666,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE9CF9D-8957-4E82-B2DA-07033A1E6991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="L401" sqref="L401:L405"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -687,7 +686,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -695,7 +694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -703,7 +702,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -711,7 +710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -719,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -727,7 +726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -736,12 +735,12 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -764,7 +763,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -781,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -798,12 +797,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
-        <v>0.199784332275391</v>
+        <v>0.19765031433105501</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -815,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -832,7 +831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -849,7 +848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -866,7 +865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -883,12 +882,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -900,12 +899,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -917,12 +916,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20">
-        <v>1.00550777278841E-6</v>
+        <v>9.9476729519665208E-7</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -934,7 +933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -954,7 +953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -974,7 +973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -994,12 +993,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>62</v>
       </c>
       <c r="B24">
-        <v>6.2844234466552698E-2</v>
+        <v>6.2172954559326199E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1014,7 +1013,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1254,12 +1253,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1316,12 +1315,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45">
-        <v>0.11273757171630901</v>
+        <v>0.109704246520996</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1333,7 +1332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -1350,7 +1349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -1401,12 +1400,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1418,12 +1417,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1435,12 +1434,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>34</v>
       </c>
       <c r="B52">
-        <v>5.67404320463538E-7</v>
+        <v>5.52137731574476E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1452,7 +1451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -1512,12 +1511,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3.5462772369384797E-2</v>
+        <v>3.4508605957031299E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1532,7 +1531,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1571,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1692,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="1" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1772,12 +1771,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1834,12 +1833,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>41</v>
       </c>
       <c r="B77">
-        <v>0.14680630493164101</v>
+        <v>0.145598434448242</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1851,7 +1850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>37</v>
       </c>
@@ -1919,12 +1918,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>36</v>
       </c>
       <c r="B82">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1936,12 +1935,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -1953,12 +1952,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>34</v>
       </c>
       <c r="B84">
-        <v>7.3887116741388999E-7</v>
+        <v>7.3279195930808806E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -1970,7 +1969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -2030,12 +2029,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>62</v>
       </c>
       <c r="B88">
-        <v>4.6179447174072297E-2</v>
+        <v>4.57994995117188E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2050,7 +2049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2110,7 +2109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>53</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -2282,7 +2281,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -2290,12 +2289,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +2334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -2352,12 +2351,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>41</v>
       </c>
       <c r="B109">
-        <v>0.11273757171630901</v>
+        <v>0.109704246520996</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2369,7 +2368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>40</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>39</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>38</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -2437,12 +2436,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>36</v>
       </c>
       <c r="B114">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2454,12 +2453,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>35</v>
       </c>
       <c r="B115">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2471,12 +2470,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>34</v>
       </c>
       <c r="B116">
-        <v>5.67404320463538E-7</v>
+        <v>5.52137731574476E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2488,7 +2487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -2548,12 +2547,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>62</v>
       </c>
       <c r="B120">
-        <v>3.5462772369384797E-2</v>
+        <v>3.4508605957031299E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2568,7 +2567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>54</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>53</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -2808,12 +2807,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>43</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>42</v>
       </c>
@@ -2870,12 +2869,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>41</v>
       </c>
       <c r="B141">
-        <v>0.199784332275391</v>
+        <v>0.19765031433105501</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2887,7 +2886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -2904,7 +2903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>39</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>38</v>
       </c>
@@ -2938,7 +2937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -2955,12 +2954,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>36</v>
       </c>
       <c r="B146">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -2972,12 +2971,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>35</v>
       </c>
       <c r="B147">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -2989,12 +2988,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>34</v>
       </c>
       <c r="B148">
-        <v>1.00550777278841E-6</v>
+        <v>9.9476729519665208E-7</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3006,7 +3005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -3066,12 +3065,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>62</v>
       </c>
       <c r="B152">
-        <v>6.2844234466552698E-2</v>
+        <v>6.2172954559326199E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3086,7 +3085,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>54</v>
       </c>
@@ -3294,7 +3293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>53</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -3310,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>44</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3326,12 +3325,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>43</v>
       </c>
@@ -3371,7 +3370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>42</v>
       </c>
@@ -3388,12 +3387,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>41</v>
       </c>
       <c r="B173">
-        <v>0.11273757171630901</v>
+        <v>0.109704246520996</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3405,7 +3404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>39</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -3473,12 +3472,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>36</v>
       </c>
       <c r="B178">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3490,12 +3489,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>35</v>
       </c>
       <c r="B179">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3507,12 +3506,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>34</v>
       </c>
       <c r="B180">
-        <v>5.67404320463538E-7</v>
+        <v>5.52137731574476E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3524,7 +3523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -3584,12 +3583,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>62</v>
       </c>
       <c r="B184">
-        <v>3.5462772369384797E-2</v>
+        <v>3.4508605957031299E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3604,7 +3603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -3624,7 +3623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3664,7 +3663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="15.75">
       <c r="A196" s="1" t="s">
         <v>54</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>53</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>47</v>
       </c>
@@ -3828,7 +3827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>44</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -3844,12 +3843,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="15.75">
       <c r="A201" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>49</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -3906,12 +3905,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>41</v>
       </c>
       <c r="B205">
-        <v>0.14680630493164101</v>
+        <v>0.145598434448242</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3923,7 +3922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>40</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>39</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>38</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -3991,12 +3990,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>36</v>
       </c>
       <c r="B210">
-        <v>6.7422000000000001E-4</v>
+        <v>6.6299700736999504E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -4008,12 +4007,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>35</v>
       </c>
       <c r="B211">
-        <v>1.5468375058844701E-6</v>
+        <v>1.54635403305292E-6</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4025,12 +4024,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>34</v>
       </c>
       <c r="B212">
-        <v>7.3887116741388999E-7</v>
+        <v>7.3279195930808806E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4042,7 +4041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>31</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -4102,12 +4101,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>62</v>
       </c>
       <c r="B216">
-        <v>4.6179447174072297E-2</v>
+        <v>4.57994995117188E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4122,7 +4121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>24</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>11</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>9</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="15.75">
       <c r="A228" s="1" t="s">
         <v>54</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>53</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>44</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -4362,12 +4361,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="15.75">
       <c r="A233" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>49</v>
       </c>
@@ -4390,12 +4389,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>43</v>
       </c>
       <c r="B235">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4407,12 +4406,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>42</v>
       </c>
       <c r="B236">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4424,12 +4423,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>41</v>
       </c>
       <c r="B237">
-        <v>0.25312678527832</v>
+        <v>0.25603442382812502</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4441,12 +4440,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>40</v>
       </c>
       <c r="B238">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4458,12 +4457,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>39</v>
       </c>
       <c r="B239">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4475,12 +4474,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>38</v>
       </c>
       <c r="B240">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4492,12 +4491,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>37</v>
       </c>
       <c r="B241">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4509,12 +4508,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>36</v>
       </c>
       <c r="B242">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D242" t="s">
         <v>2</v>
@@ -4526,7 +4525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>35</v>
       </c>
@@ -4543,12 +4542,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244">
-        <v>1.2151495320722499E-6</v>
+        <v>1.2291077291593E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4560,7 +4559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>31</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -4620,7 +4619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -4720,12 +4719,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>17</v>
       </c>
       <c r="B253">
-        <v>8.073972320556641E-2</v>
+        <v>8.1667167663574208E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4740,7 +4739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>14</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -4780,7 +4779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>9</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="15.75">
       <c r="A260" s="1" t="s">
         <v>54</v>
       </c>
@@ -4848,7 +4847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
         <v>53</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>47</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>44</v>
       </c>
@@ -4872,7 +4871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -4880,12 +4879,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="15.75">
       <c r="A265" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>49</v>
       </c>
@@ -4908,12 +4907,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
         <v>43</v>
       </c>
       <c r="B267">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D267" t="s">
         <v>2</v>
@@ -4925,12 +4924,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
         <v>42</v>
       </c>
       <c r="B268">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4942,12 +4941,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>41</v>
       </c>
       <c r="B269">
-        <v>0.14872747802734401</v>
+        <v>0.14796913146972701</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -4959,12 +4958,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>40</v>
       </c>
       <c r="B270">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -4976,12 +4975,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
         <v>39</v>
       </c>
       <c r="B271">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -4993,12 +4992,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
         <v>38</v>
       </c>
       <c r="B272">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5010,12 +5009,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
         <v>37</v>
       </c>
       <c r="B273">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5027,12 +5026,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>36</v>
       </c>
       <c r="B274">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D274" t="s">
         <v>2</v>
@@ -5044,7 +5043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
         <v>35</v>
       </c>
@@ -5061,12 +5060,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>34</v>
       </c>
       <c r="B276">
-        <v>7.1397470310330403E-7</v>
+        <v>7.1033422136679305E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5078,7 +5077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>30</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -5138,7 +5137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>24</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
         <v>24</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>20</v>
       </c>
@@ -5238,12 +5237,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>17</v>
       </c>
       <c r="B285">
-        <v>4.7439529418945303E-2</v>
+        <v>4.7197639465332002E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5258,7 +5257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -5278,7 +5277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -5298,7 +5297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>9</v>
       </c>
@@ -5318,7 +5317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="15.75">
       <c r="A292" s="1" t="s">
         <v>54</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>47</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -5390,7 +5389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -5398,12 +5397,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="15.75">
       <c r="A297" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -5426,12 +5425,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
         <v>43</v>
       </c>
       <c r="B299">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -5443,12 +5442,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
         <v>42</v>
       </c>
       <c r="B300">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5460,12 +5459,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
         <v>41</v>
       </c>
       <c r="B301">
-        <v>0.179585876464844</v>
+        <v>0.186284530639648</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5477,12 +5476,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
         <v>40</v>
       </c>
       <c r="B302">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5494,12 +5493,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
         <v>39</v>
       </c>
       <c r="B303">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -5511,12 +5510,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
         <v>38</v>
       </c>
       <c r="B304">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5528,12 +5527,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
         <v>37</v>
       </c>
       <c r="B305">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5545,12 +5544,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
         <v>36</v>
       </c>
       <c r="B306">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D306" t="s">
         <v>2</v>
@@ -5562,7 +5561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>35</v>
       </c>
@@ -5579,12 +5578,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>34</v>
       </c>
       <c r="B308">
-        <v>8.6211221059784306E-7</v>
+        <v>8.9426944032311401E-7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5596,7 +5595,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>31</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>28</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>24</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>24</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
         <v>20</v>
       </c>
@@ -5756,12 +5755,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
         <v>17</v>
       </c>
       <c r="B317">
-        <v>5.7282417297363303E-2</v>
+        <v>5.9419082641601603E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5776,7 +5775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>11</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -5876,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="15.75">
       <c r="A324" s="1" t="s">
         <v>54</v>
       </c>
@@ -5884,7 +5883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>53</v>
       </c>
@@ -5892,7 +5891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
         <v>47</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -5916,12 +5915,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.75">
       <c r="A329" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>49</v>
       </c>
@@ -5944,12 +5943,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
         <v>43</v>
       </c>
       <c r="B331">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -5961,12 +5960,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>42</v>
       </c>
       <c r="B332">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -5978,12 +5977,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>41</v>
       </c>
       <c r="B333">
-        <v>0.14872747802734401</v>
+        <v>0.14796913146972701</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -5995,12 +5994,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>40</v>
       </c>
       <c r="B334">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6012,12 +6011,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>39</v>
       </c>
       <c r="B335">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -6029,12 +6028,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>38</v>
       </c>
       <c r="B336">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6046,12 +6045,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>37</v>
       </c>
       <c r="B337">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6063,12 +6062,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>36</v>
       </c>
       <c r="B338">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D338" t="s">
         <v>2</v>
@@ -6080,7 +6079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>35</v>
       </c>
@@ -6097,12 +6096,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>34</v>
       </c>
       <c r="B340">
-        <v>7.1397470310330403E-7</v>
+        <v>7.1033422136679305E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6114,7 +6113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
         <v>31</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>28</v>
       </c>
@@ -6174,7 +6173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
         <v>24</v>
       </c>
@@ -6214,7 +6213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
         <v>24</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
         <v>22</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>20</v>
       </c>
@@ -6274,12 +6273,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>17</v>
       </c>
       <c r="B349">
-        <v>4.7439529418945303E-2</v>
+        <v>4.7197639465332002E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6294,7 +6293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -6314,7 +6313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>11</v>
       </c>
@@ -6334,7 +6333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -6394,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -6402,7 +6401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>53</v>
       </c>
@@ -6410,7 +6409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>47</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>44</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -6434,12 +6433,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
         <v>49</v>
       </c>
@@ -6462,12 +6461,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>43</v>
       </c>
       <c r="B363">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -6479,12 +6478,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>42</v>
       </c>
       <c r="B364">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6496,12 +6495,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>41</v>
       </c>
       <c r="B365">
-        <v>0.25312678527832</v>
+        <v>0.25603442382812502</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6513,12 +6512,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>40</v>
       </c>
       <c r="B366">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6530,12 +6529,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>39</v>
       </c>
       <c r="B367">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -6547,12 +6546,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>38</v>
       </c>
       <c r="B368">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6564,12 +6563,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>37</v>
       </c>
       <c r="B369">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6581,12 +6580,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
         <v>36</v>
       </c>
       <c r="B370">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D370" t="s">
         <v>2</v>
@@ -6598,7 +6597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>35</v>
       </c>
@@ -6615,12 +6614,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>34</v>
       </c>
       <c r="B372">
-        <v>1.2151495320722499E-6</v>
+        <v>1.2291077291593E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6632,7 +6631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>31</v>
       </c>
@@ -6652,7 +6651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -6712,7 +6711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>24</v>
       </c>
@@ -6732,7 +6731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>24</v>
       </c>
@@ -6752,7 +6751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -6772,7 +6771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
         <v>20</v>
       </c>
@@ -6792,12 +6791,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
         <v>17</v>
       </c>
       <c r="B381">
-        <v>8.073972320556641E-2</v>
+        <v>8.1667167663574208E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6812,7 +6811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
         <v>11</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
         <v>9</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11">
       <c r="A386" t="s">
         <v>4</v>
       </c>
@@ -6912,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>54</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11">
       <c r="A389" t="s">
         <v>53</v>
       </c>
@@ -6928,7 +6927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11">
       <c r="A390" t="s">
         <v>47</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11">
       <c r="A391" t="s">
         <v>44</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -6952,12 +6951,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11">
       <c r="A394" t="s">
         <v>49</v>
       </c>
@@ -6981,12 +6980,12 @@
       </c>
       <c r="K394" s="7"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11">
       <c r="A395" t="s">
         <v>43</v>
       </c>
       <c r="B395">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -6998,12 +6997,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11">
       <c r="A396" t="s">
         <v>42</v>
       </c>
       <c r="B396">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7015,12 +7014,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11">
       <c r="A397" t="s">
         <v>41</v>
       </c>
       <c r="B397">
-        <v>0.14872747802734401</v>
+        <v>0.14796913146972701</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7032,12 +7031,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11">
       <c r="A398" t="s">
         <v>40</v>
       </c>
       <c r="B398">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7049,12 +7048,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11">
       <c r="A399" t="s">
         <v>39</v>
       </c>
       <c r="B399">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -7066,12 +7065,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11">
       <c r="A400" t="s">
         <v>38</v>
       </c>
       <c r="B400">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7083,12 +7082,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12">
       <c r="A401" t="s">
         <v>37</v>
       </c>
       <c r="B401">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7100,12 +7099,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12">
       <c r="A402" t="s">
         <v>36</v>
       </c>
       <c r="B402">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D402" t="s">
         <v>2</v>
@@ -7117,7 +7116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="A403" t="s">
         <v>35</v>
       </c>
@@ -7134,12 +7133,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="A404" t="s">
         <v>34</v>
       </c>
       <c r="B404">
-        <v>7.1397470310330403E-7</v>
+        <v>7.1033422136679305E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7152,7 +7151,7 @@
       </c>
       <c r="L404" s="7"/>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12">
       <c r="A405" t="s">
         <v>31</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12">
       <c r="A406" t="s">
         <v>30</v>
       </c>
@@ -7192,7 +7191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12">
       <c r="A407" t="s">
         <v>28</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12">
       <c r="A408" t="s">
         <v>26</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="A409" t="s">
         <v>24</v>
       </c>
@@ -7252,7 +7251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12">
       <c r="A410" t="s">
         <v>24</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12">
       <c r="A411" t="s">
         <v>22</v>
       </c>
@@ -7292,7 +7291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="A412" t="s">
         <v>20</v>
       </c>
@@ -7312,12 +7311,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12">
       <c r="A413" t="s">
         <v>17</v>
       </c>
       <c r="B413">
-        <v>4.7439529418945303E-2</v>
+        <v>4.7197639465332002E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7332,7 +7331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="A415" t="s">
         <v>11</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12">
       <c r="A416" t="s">
         <v>9</v>
       </c>
@@ -7392,7 +7391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>4</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="15.75">
       <c r="A420" s="1" t="s">
         <v>54</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>53</v>
       </c>
@@ -7448,7 +7447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
         <v>47</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>19</v>
       </c>
@@ -7472,12 +7471,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.75">
       <c r="A425" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
         <v>49</v>
       </c>
@@ -7500,12 +7499,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
         <v>43</v>
       </c>
       <c r="B427">
-        <v>4.0331047028303097E-5</v>
+        <v>4.0552467107772798E-5</v>
       </c>
       <c r="D427" t="s">
         <v>2</v>
@@ -7517,12 +7516,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>42</v>
       </c>
       <c r="B428">
-        <v>1.1358690680935999E-6</v>
+        <v>1.1356717441230999E-6</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7534,12 +7533,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>41</v>
       </c>
       <c r="B429">
-        <v>0.179585876464844</v>
+        <v>0.186284530639648</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7551,12 +7550,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>40</v>
       </c>
       <c r="B430">
-        <v>7.7470254898071305E-4</v>
+        <v>7.8401666879653899E-4</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7568,12 +7567,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>39</v>
       </c>
       <c r="B431">
-        <v>4.3919458403252099E-7</v>
+        <v>5.0076656043529496E-7</v>
       </c>
       <c r="D431" t="s">
         <v>2</v>
@@ -7585,12 +7584,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>38</v>
       </c>
       <c r="B432">
-        <v>7.3791958857327695E-7</v>
+        <v>7.3779141530394596E-7</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7602,12 +7601,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
         <v>37</v>
       </c>
       <c r="B433">
-        <v>8.0468375235795997E-6</v>
+        <v>8.0454396083951E-6</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7619,12 +7618,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
         <v>36</v>
       </c>
       <c r="B434">
-        <v>5.8729059994220698E-5</v>
+        <v>6.2560155987739609E-5</v>
       </c>
       <c r="D434" t="s">
         <v>2</v>
@@ -7636,7 +7635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>35</v>
       </c>
@@ -7653,12 +7652,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>34</v>
       </c>
       <c r="B436">
-        <v>8.6211221059784306E-7</v>
+        <v>8.9426944032311401E-7</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7670,7 +7669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>31</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
         <v>30</v>
       </c>
@@ -7710,7 +7709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
         <v>28</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>26</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>24</v>
       </c>
@@ -7770,7 +7769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>24</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
         <v>22</v>
       </c>
@@ -7810,7 +7809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>20</v>
       </c>
@@ -7830,12 +7829,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
         <v>17</v>
       </c>
       <c r="B445">
-        <v>5.7282417297363303E-2</v>
+        <v>5.9419082641601603E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7850,7 +7849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -7870,7 +7869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
         <v>9</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8">
       <c r="A450" t="s">
         <v>4</v>
       </c>
@@ -7950,91 +7949,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8">
       <c r="B452" s="2"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8">
       <c r="B459" s="4"/>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8">
       <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="H460" s="6"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8">
       <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="H461" s="6"/>
     </row>
-    <row r="487" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" ht="15.75">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
     </row>
-    <row r="492" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" ht="15.75">
       <c r="A492" s="1"/>
     </row>
-    <row r="519" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" ht="15.75">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
     </row>
-    <row r="524" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" ht="15.75">
       <c r="A524" s="1"/>
     </row>
-    <row r="551" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" ht="15.75">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
     </row>
-    <row r="556" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" ht="15.75">
       <c r="A556" s="1"/>
     </row>
-    <row r="583" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" ht="15.75">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
     </row>
-    <row r="588" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" ht="15.75">
       <c r="A588" s="1"/>
     </row>
-    <row r="615" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" ht="15.75">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
     </row>
-    <row r="620" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" ht="15.75">
       <c r="A620" s="1"/>
     </row>
-    <row r="653" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" ht="15.75">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="15.75">
       <c r="A658" s="1"/>
     </row>
-    <row r="691" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" ht="15.75">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
     </row>
-    <row r="696" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" ht="15.75">
       <c r="A696" s="1"/>
     </row>
-    <row r="729" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" ht="15.75">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
     </row>
-    <row r="734" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" ht="15.75">
       <c r="A734" s="1"/>
     </row>
-    <row r="767" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" ht="15.75">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="15.75">
       <c r="A772" s="1"/>
     </row>
-    <row r="805" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" ht="15.75">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
     </row>
-    <row r="810" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" ht="15.75">
       <c r="A810" s="1"/>
     </row>
   </sheetData>
